--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8110" windowWidth="18530"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8110" windowWidth="18530"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="searchProjectList" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="buildProject" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="openBidSchedule" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="buildProject" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="openBidSchedule" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="手动测试点" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -28,23 +28,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF505050"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
       <color rgb="FF505050"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -193,12 +203,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -393,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -417,57 +433,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -581,10 +549,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="4" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -593,234 +561,230 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="8" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="4" fillId="9" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="12" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="12" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="13" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="13" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="13" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="14" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="34" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1141,258 +1105,258 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="21" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="4" min="1" style="2" width="9"/>
-    <col customWidth="1" max="5" min="5" style="2" width="12.1666666666667"/>
-    <col customWidth="1" max="6" min="6" style="2" width="49.1666666666667"/>
-    <col customWidth="1" max="7" min="7" style="2" width="46"/>
-    <col customWidth="1" max="8" min="8" style="31" width="9"/>
-    <col customWidth="1" max="16384" min="9" style="2" width="9"/>
+    <col customWidth="1" max="4" min="1" style="5" width="9"/>
+    <col customWidth="1" max="5" min="5" style="5" width="12.1666666666667"/>
+    <col customWidth="1" max="6" min="6" style="1" width="49.1666666666667"/>
+    <col customWidth="1" max="7" min="7" style="5" width="46"/>
+    <col customWidth="1" max="8" min="8" style="27" width="9"/>
+    <col customWidth="1" max="16384" min="9" style="5" width="9"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="33" r="1" s="2">
-      <c r="A1" s="26" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="31" r="1" s="5">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="26" t="inlineStr">
+      <c r="B1" s="28" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="28" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="28" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="26" t="inlineStr">
+      <c r="E1" s="28" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="29" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="26" t="inlineStr">
+      <c r="G1" s="28" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="32" t="inlineStr">
+      <c r="H1" s="30" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="I1" s="26" t="n"/>
-    </row>
-    <row customHeight="1" ht="20" r="2">
-      <c r="A2" s="2" t="n">
+      <c r="I1" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="42" r="2">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" s="33" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="31" t="inlineStr">
         <is>
           <t>/user/login</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>{"loginName":"EjjnbdyrHQ4a2eboOFPzFg==","password":"OkDOYrdBTBcq36OKApyAlA==","loginType":2,"localhost":"w+L6qS7r9ov7+ftc4UFJuA=="}</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>{"msg":"处理成功","code":200}</t>
         </is>
       </c>
-      <c r="H2" s="31" t="inlineStr">
+      <c r="H2" s="27" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14" r="3">
-      <c r="A3" s="2" t="n">
+    <row customHeight="1" ht="28" r="3">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>账号为空</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" s="33" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="31" t="inlineStr">
         <is>
           <t>/user/login</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>{"loginName":"","password":"OkDOYrdBTBcq36OKApyAlA==","loginType":2,"localhost":"w+L6qS7r9ov7+ftc5UFJuA=="}</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>{"msg":"账号或密码错误","code":1007}</t>
         </is>
       </c>
-      <c r="H3" s="31" t="inlineStr">
+      <c r="H3" s="27" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="28" r="4">
+      <c r="A4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>密码为空</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" s="31" t="inlineStr">
+        <is>
+          <t>/user/login</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>{"loginName":"EjjnbdyrHQ4a2eboOFPzFg==","password":"","loginType":2,"localhost":"w+L6qS7r9ov7+ftc6UFJuA=="}</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>{"msg":"账号或密码错误","code":1007}</t>
+        </is>
+      </c>
+      <c r="H4" s="27" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14" r="4">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>密码为空</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
+    <row customHeight="1" ht="42" r="5">
+      <c r="A5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>账号错误</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E4" s="33" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" s="31" t="inlineStr">
         <is>
           <t>/user/login</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>{"loginName":"EjjnbdyrHQ4a2eboOFPzFg==","password":"","loginType":2,"localhost":"w+L6qS7r9ov7+ftc6UFJuA=="}</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>{"loginName":"EjjnbdyrHQ4a2eboOFPzF==","password":"OkDOYrdBTBcq36OKApyAlA==","loginType":2,"localhost":"w+L6qS7r9ov7+ftc7UFJuA=="}</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>{"msg":"账号或密码错误","code":1007}</t>
         </is>
       </c>
-      <c r="H4" s="31" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14" r="5">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>账号错误</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="H5" s="27" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="42" r="6">
+      <c r="A6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>密码错误</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E5" s="33" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" s="31" t="inlineStr">
         <is>
           <t>/user/login</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>{"loginName":"EjjnbdyrHQ4a2eboOFPzF==","password":"OkDOYrdBTBcq36OKApyAlA==","loginType":2,"localhost":"w+L6qS7r9ov7+ftc7UFJuA=="}</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>{"loginName":"EjjnbdyrHQ4a2eboOFPzFg==","password":"OkDOYrdBTBcq36OKApyAl==","loginType":2,"localhost":"w+L6qS7r9ov7+ftc8UFJuA=="}</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>{"msg":"账号或密码错误","code":1007}</t>
         </is>
       </c>
-      <c r="H5" s="31" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14" r="6">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>密码错误</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>login</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E6" s="33" t="inlineStr">
-        <is>
-          <t>/user/login</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>{"loginName":"EjjnbdyrHQ4a2eboOFPzFg==","password":"OkDOYrdBTBcq36OKApyAl==","loginType":2,"localhost":"w+L6qS7r9ov7+ftc8UFJuA=="}</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>{"msg":"账号或密码错误","code":1007}</t>
-        </is>
-      </c>
-      <c r="H6" s="31" t="inlineStr">
+      <c r="H6" s="27" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1404,197 +1368,319 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.66666666666667" defaultRowHeight="21" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="8.66666666666667"/>
-    <col customWidth="1" max="2" min="2" style="3" width="15.5833333333333"/>
-    <col customWidth="1" max="3" min="3" style="3" width="11.9166666666667"/>
-    <col customWidth="1" max="4" min="4" style="3" width="8.66666666666667"/>
-    <col customWidth="1" max="5" min="5" style="3" width="18.3333333333333"/>
-    <col customWidth="1" max="6" min="6" style="3" width="36"/>
-    <col customWidth="1" max="7" min="7" style="3" width="25.5"/>
-    <col customWidth="1" max="16384" min="8" style="3" width="8.66666666666667"/>
+    <col customWidth="1" max="2" min="2" width="12.5833333333333"/>
+    <col customWidth="1" max="3" min="3" width="23.9166666666667"/>
+    <col customWidth="1" max="4" min="4" width="11.75"/>
+    <col customWidth="1" max="6" min="6" width="13.25"/>
+    <col customWidth="1" max="7" min="7" width="24.5"/>
+    <col customWidth="1" max="8" min="8" width="16.5"/>
+    <col customWidth="1" max="11" min="11" width="23.8333333333333"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="40" r="1" s="2">
-      <c r="A1" s="26" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="37" r="1" s="1">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="26" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>提取参数</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="26" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="G1" s="26" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="H1" s="26" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="I1" s="28" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="68" r="2" s="15">
-      <c r="A2" s="2" t="n">
+      <c r="J1" s="10" t="inlineStr">
+        <is>
+          <t>database</t>
+        </is>
+      </c>
+      <c r="K1" s="10" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="70" r="2" s="5">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>提取userId用于查询当天项目列表，userCode</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" s="17" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="12" t="inlineStr">
         <is>
           <t>/user/login</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>{"loginName":"EjjnbdyrHQ4a2eboOFPzFg==","password":"OkDOYrdBTBcq36OKApyAlA==","loginType":2,"localhost":"w+L6qS7r9ov7+ftc4UFJuA=="}</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="11" t="inlineStr">
+        <is>
+          <t>{"loginName":"WDp+LpADv83sR9PnbC7X4g==","password":"OkDOYrdBTBcq36OKApyAlA==","loginType":2,"localhost":"w+L6qS7r9ov7+ftc4UFJuA==","code":"","loginFlag":"3651f072395347537c74089989c88a66_1678252088031"}</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>{"msg":"处理成功","code":200}</t>
         </is>
       </c>
-      <c r="H2" s="24" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="28" r="3">
-      <c r="A3" s="2" t="n">
+      <c r="J2" s="11" t="n"/>
+      <c r="K2" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="57" r="3" s="5">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>查询当天项目列表</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>projectlist</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>/projectlist/today/list</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>{"roleType":"7","userCode":"4bf500501d1b44bc90223bc6999df6da"}</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>{"code":200,"msg":"处理成功"}</t>
-        </is>
-      </c>
-      <c r="H3" s="19" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>获取文件上传路径</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>提取logicPath</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>getUploadUrl</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="11" t="inlineStr">
+        <is>
+          <t>/projectGen/getUploadUrl</t>
+        </is>
+      </c>
+      <c r="G3" s="11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>{"msg":"操作成功","code":"200"}</t>
+        </is>
+      </c>
+      <c r="I3" s="18" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-      <c r="I3" s="29" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="70" r="4" s="23">
-      <c r="A4" s="27" t="n">
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>DELETE FROM open_project WHERE project_id='#projectId#'</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="1" t="n"/>
+      <c r="N3" s="1" t="n"/>
+      <c r="O3" s="1" t="n"/>
+      <c r="P3" s="1" t="n"/>
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="1" t="n"/>
+      <c r="S3" s="1" t="n"/>
+      <c r="T3" s="1" t="n"/>
+      <c r="U3" s="1" t="n"/>
+      <c r="V3" s="1" t="n"/>
+      <c r="W3" s="1" t="n"/>
+      <c r="X3" s="1" t="n"/>
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n"/>
+      <c r="AB3" s="1" t="n"/>
+      <c r="AC3" s="1" t="n"/>
+      <c r="AD3" s="1" t="n"/>
+      <c r="AE3" s="1" t="n"/>
+      <c r="AF3" s="1" t="n"/>
+      <c r="AG3" s="1" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="88" r="4" s="7">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="inlineStr">
-        <is>
-          <t>查询历史项目列表</t>
-        </is>
-      </c>
-      <c r="C4" s="27" t="inlineStr">
-        <is>
-          <t>projectlist</t>
-        </is>
-      </c>
-      <c r="D4" s="27" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E4" s="27" t="inlineStr">
-        <is>
-          <t>/projectlist/history/list</t>
-        </is>
-      </c>
-      <c r="F4" s="16" t="inlineStr">
-        <is>
-          <t>{"beginTime":"","endTime":"","industryName":"","keywords":"","pageIndex":1,"pageSize":10,"professionTypeName":"","projectState":"","roleType":"7","userCode":"4bf500501d1b44bc90223bc6999df6da"}</t>
-        </is>
-      </c>
-      <c r="G4" s="27" t="inlineStr">
-        <is>
-          <t>{"code":200,"msg":"处理成功"}</t>
-        </is>
-      </c>
-      <c r="H4" s="22" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="I4" s="30" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="14" r="5" s="24"/>
-    <row customFormat="1" customHeight="1" ht="14" r="6" s="25"/>
+      <c r="B4" s="16" t="inlineStr">
+        <is>
+          <t>上传文件</t>
+        </is>
+      </c>
+      <c r="C4" s="16" t="inlineStr">
+        <is>
+          <t>提取fileId</t>
+        </is>
+      </c>
+      <c r="D4" s="16" t="inlineStr">
+        <is>
+          <t>uploadFile</t>
+        </is>
+      </c>
+      <c r="E4" s="16" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="17" t="inlineStr">
+        <is>
+          <t>/fileHandle//fileSystem/uploadFile</t>
+        </is>
+      </c>
+      <c r="G4" s="15" t="inlineStr">
+        <is>
+          <t>{
+ "appId": "gbes",
+ "secretKey": "12345",
+ "fileMd5": "c02a4c073fcac518cdd6ed22fefce308",
+ "logicPath": "#logicPath#/bidSectionId/openBid/tenderFile/"
+}</t>
+        </is>
+      </c>
+      <c r="H4" s="16" t="inlineStr">
+        <is>
+          <t>{"msg":"操作成功","code":"200"}</t>
+        </is>
+      </c>
+      <c r="I4" s="13" t="inlineStr">
+        <is>
+          <t>不通过</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="70" r="5" s="1">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>新建项目</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>上传文件接口返回fileId和filepath即logicPath，用于新建项目；
+提取projectId,bidSectionId</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>createProjectByTenderFile</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="11" t="inlineStr">
+        <is>
+          <t>/projectGen/createProjectByTenderFile</t>
+        </is>
+      </c>
+      <c r="G5" s="11" t="inlineStr">
+        <is>
+          <t>{"openBidTime":"2023-03-08 10:32:44","evBidTime":"2023-03-08 10:32:46","openBidRoom":"1","evBidRoom":"1","fileId":"f3d26660d7c645349c634a071a313a52","logicPath":"/gbes/2023-03-08"}</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>{"msg":"操作成功","code":200}</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>不通过</t>
+        </is>
+      </c>
+      <c r="J5" s="23" t="inlineStr">
+        <is>
+          <t>数据库新增一条项目信息</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>DELETE FROM open_project WHERE project_id='#projectId#'</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink display="/fileHandle//fileSystem/uploadFile" ref="F4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -1605,295 +1691,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="4"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="8.66666666666667"/>
-    <col customWidth="1" max="3" min="2" style="1" width="15.25"/>
-    <col customWidth="1" max="4" min="4" style="1" width="21.3333333333333"/>
-    <col customWidth="1" max="5" min="5" style="1" width="8.66666666666667"/>
-    <col customWidth="1" max="6" min="6" style="4" width="26.0833333333333"/>
-    <col customWidth="1" max="7" min="7" style="1" width="42.4166666666667"/>
-    <col customWidth="1" max="8" min="8" style="1" width="26.5"/>
-    <col customWidth="1" max="9" min="9" style="1" width="8.66666666666667"/>
-    <col customWidth="1" max="10" min="10" style="12" width="31.1666666666667"/>
-    <col customWidth="1" max="33" min="11" style="1" width="8.66666666666667"/>
-    <col customWidth="1" max="16384" min="34" style="1" width="40.1666666666667"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" customHeight="1" ht="28" r="1" s="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>case_id</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>提取参数</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>interface</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" s="5" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="H1" s="5" t="inlineStr">
-        <is>
-          <t>expected</t>
-        </is>
-      </c>
-      <c r="I1" s="5" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="J1" s="9" t="inlineStr">
-        <is>
-          <t>check_sql</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="70" r="2" s="15">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>登录成功</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>login</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F2" s="17" t="inlineStr">
-        <is>
-          <t>/user/login</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>{"loginName":"EjjnbdyrHQ4a2eboOFPzFg==","password":"OkDOYrdBTBcq36OKApyAlA==","loginType":2,"localhost":"w+L6qS7r9ov7+ftc4UFJuA==","code":"","loginFlag":"3651f072395347537c74089989c88a66_1677583335162"}</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>{"msg":"处理成功","code":200}</t>
-        </is>
-      </c>
-      <c r="I2" s="19" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="3">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>获取文件上传路径</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>提取logicPath</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>getUploadUrl</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>/projectGen/getUploadUrl</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>{"msg":"操作成功","code":"200"}</t>
-        </is>
-      </c>
-      <c r="I3" s="19" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="J3" s="20" t="n"/>
-      <c r="K3" s="21" t="n"/>
-      <c r="L3" s="21" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="74" r="4" s="16">
-      <c r="A4" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="inlineStr">
-        <is>
-          <t>上传文件</t>
-        </is>
-      </c>
-      <c r="C4" s="16" t="inlineStr">
-        <is>
-          <t>提取fileId</t>
-        </is>
-      </c>
-      <c r="D4" s="16" t="inlineStr">
-        <is>
-          <t>uploadFile</t>
-        </is>
-      </c>
-      <c r="E4" s="16" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F4" s="18" t="inlineStr">
-        <is>
-          <t>http://10.0.106.3:81/fileHandle//fileSystem/uploadFile</t>
-        </is>
-      </c>
-      <c r="G4" s="16" t="inlineStr">
-        <is>
-          <t>{
- "appId": "gbes",
- "secretKey": "12345",
- "fileMd5": "c02a4c073fcac518cdd6ed22fefce308",
- "logicPath": "#logicPath#/bidSectionId/openBid/tenderFile/"
-}</t>
-        </is>
-      </c>
-      <c r="H4" s="16" t="inlineStr">
-        <is>
-          <t>{"msg":"操作成功","code":"200"}</t>
-        </is>
-      </c>
-      <c r="I4" s="22" t="inlineStr">
-        <is>
-          <t>不通过</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="109" r="5" s="1">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>新建项目</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>createProjectByTenderFile</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>/projectGen/createProjectByTenderFile</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>{"openBidTime":"2023-03-07 15:41:18","evBidTime":"2023-03-07 15:41:20","openBidRoom":"1","evBidRoom":"1","fileId":"#fileId#","logicPath":"/gbes/2023-03-07"}</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>{"msg":"操作成功","code":200}</t>
-        </is>
-      </c>
-      <c r="I5" s="19" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="J5" s="12" t="inlineStr">
-        <is>
-          <t>DELETE FROM open_project WHERE project_id='{}'</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="http://10.0.106.3:81/fileHandle//fileSystem/uploadFile" ref="F4" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.66666666666667" defaultRowHeight="21"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="7.08333333333333"/>
-    <col customWidth="1" max="2" min="2" style="1" width="15.25"/>
-    <col customWidth="1" max="3" min="3" style="4" width="24.9166666666667"/>
-    <col customWidth="1" max="4" min="4" style="1" width="21.75"/>
+    <col customWidth="1" max="1" min="1" style="1" width="10.4916666666667"/>
+    <col customWidth="1" max="2" min="2" style="1" width="17.15"/>
+    <col customWidth="1" max="3" min="3" style="9" width="24.9166666666667"/>
+    <col customWidth="1" max="4" min="4" style="1" width="20.975"/>
     <col customWidth="1" max="5" min="5" style="1" width="8.66666666666667"/>
-    <col customWidth="1" max="6" min="6" style="1" width="27.75"/>
-    <col customWidth="1" max="7" min="7" style="1" width="42.3333333333333"/>
+    <col customWidth="1" max="6" min="6" style="9" width="32.25"/>
+    <col customWidth="1" max="7" min="7" style="9" width="43.1333333333333"/>
     <col customWidth="1" max="8" min="8" style="1" width="25.75"/>
     <col customWidth="1" max="9" min="9" style="1" width="8.66666666666667"/>
     <col customWidth="1" max="10" min="10" style="1" width="11.9166666666667"/>
@@ -1901,98 +1713,98 @@
     <col customWidth="1" max="16384" min="12" style="1" width="8.66666666666667"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="25" r="1" s="1">
-      <c r="A1" s="5" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="37" r="1" s="1">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>提取参数</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="J1" s="10" t="inlineStr">
         <is>
           <t>database</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="K1" s="10" t="inlineStr">
         <is>
           <t>check_sql</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="56" r="2" s="2">
-      <c r="A2" s="1" t="n">
+    <row customFormat="1" customHeight="1" ht="70" r="2" s="5">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>提取userId用于查询当天项目列表，userCode</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="12" t="inlineStr">
         <is>
           <t>/user/login</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>{"loginName":"WDp+LpADv83sR9PnbC7X4g==","password":"OkDOYrdBTBcq36OKApyAlA==","loginType":2,"localhost":"w+L6qS7r9ov7+ftc4UFJuA==","code":"","loginFlag":"3651f072395347537c74089989c88a66_1678252088031"}</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="G2" s="11" t="inlineStr">
+        <is>
+          <t>{"loginName":"EjjnbdyrHQ4a2eboOFPzFg==","password":"OkDOYrdBTBcq36OKApyAlA==","loginType":2,"localhost":"w+L6qS7r9ov7+ftc4UFJuA==","code":"","loginFlag":"3651f072395347537c74089989c88a66_1686914581732"}</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>{"msg":"处理成功","code":200}</t>
         </is>
@@ -2002,397 +1814,583 @@
           <t>通过</t>
         </is>
       </c>
-      <c r="J2" s="4" t="n"/>
-      <c r="K2" s="1" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="70" r="3" s="1">
-      <c r="A3" s="1" t="n">
+      <c r="J2" s="11" t="n"/>
+      <c r="K2" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="70" r="3" s="6">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>查询历史项目列表</t>
+        </is>
+      </c>
+      <c r="D3" s="13" t="inlineStr">
+        <is>
+          <t>projectlistHistory</t>
+        </is>
+      </c>
+      <c r="E3" s="13" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="14" t="inlineStr">
+        <is>
+          <t>/projectlist/history/list</t>
+        </is>
+      </c>
+      <c r="G3" s="15" t="inlineStr">
+        <is>
+          <t>{"beginTime":"","endTime":"","industryName":"","keywords":"","pageIndex":1,"pageSize":10,"professionTypeName":"","projectState":"","roleType":"7","userCode":"4bf500501d1b44bc90223bc6999df6da"}</t>
+        </is>
+      </c>
+      <c r="H3" s="13" t="inlineStr">
+        <is>
+          <t>{"code":200,"msg":"处理成功"}</t>
+        </is>
+      </c>
+      <c r="I3" s="13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="46" r="4" s="5">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>获取文件上传路径</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>提取logicPath</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>getUploadUrl</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="11" t="inlineStr">
+        <is>
+          <t>/projectGen/getUploadUrl</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>{"msg":"操作成功","code":"200"}</t>
+        </is>
+      </c>
+      <c r="I4" s="18" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="n"/>
+      <c r="O4" s="1" t="n"/>
+      <c r="P4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="1" t="n"/>
+      <c r="S4" s="1" t="n"/>
+      <c r="T4" s="1" t="n"/>
+      <c r="U4" s="1" t="n"/>
+      <c r="V4" s="1" t="n"/>
+      <c r="W4" s="1" t="n"/>
+      <c r="X4" s="1" t="n"/>
+      <c r="Y4" s="1" t="n"/>
+      <c r="Z4" s="1" t="n"/>
+      <c r="AA4" s="1" t="n"/>
+      <c r="AB4" s="1" t="n"/>
+      <c r="AC4" s="1" t="n"/>
+      <c r="AD4" s="1" t="n"/>
+      <c r="AE4" s="1" t="n"/>
+      <c r="AF4" s="1" t="n"/>
+      <c r="AG4" s="1" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="126" r="5" s="7">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="inlineStr">
+        <is>
+          <t>上传文件</t>
+        </is>
+      </c>
+      <c r="C5" s="16" t="inlineStr">
+        <is>
+          <t>提取fileId</t>
+        </is>
+      </c>
+      <c r="D5" s="16" t="inlineStr">
+        <is>
+          <t>uploadFile</t>
+        </is>
+      </c>
+      <c r="E5" s="16" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="17" t="inlineStr">
+        <is>
+          <t>/fileHandle//fileSystem/uploadFile</t>
+        </is>
+      </c>
+      <c r="G5" s="15" t="inlineStr">
+        <is>
+          <t>{
+ "appId": "gbes",
+ "secretKey": "12345",
+ "fileMd5": "c02a4c073fcac518cdd6ed22fefce308",
+ "logicPath": "#logicPath#/bidSectionId/openBid/tenderFile/"
+}</t>
+        </is>
+      </c>
+      <c r="H5" s="16" t="inlineStr">
+        <is>
+          <t>{"msg":"操作成功","code":"200"}</t>
+        </is>
+      </c>
+      <c r="I5" s="13" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="n"/>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
+      <c r="M5" s="1" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="70" r="6" s="1">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>新建项目</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>上传文件接口返回fileId和filepath即logicPath，用于新建项目；
 提取projectId,bidSectionId</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>createProjectByTenderFile</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>/projectGen/createProjectByTenderFile</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>{"openBidTime":"2023-03-08 10:32:44","evBidTime":"2023-03-08 10:32:46","openBidRoom":"1","evBidRoom":"1","fileId":"f3d26660d7c645349c634a071a313a52","logicPath":"/gbes/2023-03-08"}</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="G6" s="11" t="inlineStr">
+        <is>
+          <t>{"openBidTime":"2023-06-16 19:42:44","evBidTime":"2023-06-16 19:42:44","openBidRoom":"1","evBidRoom":"1","fileId":"f3d26660d7c645349c634a071a313a52","logicPath":"/gbes/2023-06-16"}</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>{"msg":"操作成功","code":200}</t>
         </is>
       </c>
-      <c r="I3" s="10" t="inlineStr">
+      <c r="I6" s="4" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-      <c r="J3" s="11" t="inlineStr">
+      <c r="J6" s="23" t="inlineStr">
         <is>
           <t>数据库新增一条项目信息</t>
         </is>
       </c>
-      <c r="K3" s="12" t="inlineStr">
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>DELETE FROM open_project WHERE project_id='#projectId#'</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="28" r="4" s="3">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="41" r="7" s="2">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>查询当天项目列表</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C7" s="18" t="inlineStr">
         <is>
           <t>提取domainId</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>projectlist</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>projectlistToday</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>/projectlist/today/list</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G7" s="11" t="inlineStr">
         <is>
           <t>{"roleType":"#userType#","userCode":"#userCode#"}</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>{"code":200,"msg":"处理成功"}</t>
         </is>
       </c>
-      <c r="I4" s="10" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-      <c r="J4" s="11" t="n"/>
-      <c r="K4" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="28" r="5">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>获取跳转路径</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="J7" s="23" t="n"/>
+      <c r="K7" s="24" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="28" r="8" s="8">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="inlineStr">
+        <is>
+          <t>获取进入项目跳转路径</t>
+        </is>
+      </c>
+      <c r="C8" s="20" t="n"/>
+      <c r="D8" s="19" t="inlineStr">
         <is>
           <t>getJumpUrl</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="E8" s="19" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F8" s="20" t="inlineStr">
         <is>
           <t>/project/openReady/getJumpUrl</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G8" s="20" t="inlineStr">
         <is>
           <t>{"bidSectionId":"#bidSectionId#","excludUrl":[]}</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="H8" s="19" t="inlineStr">
         <is>
           <t>{"code":200,"msg":"处理成功"}</t>
         </is>
       </c>
-      <c r="I5" s="14" t="inlineStr">
+      <c r="I8" s="25" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="28" r="6">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="J8" s="19" t="n"/>
+      <c r="K8" s="19" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="28" r="9" s="8">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="inlineStr">
         <is>
           <t>进入项目</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="C9" s="20" t="n"/>
+      <c r="D9" s="19" t="inlineStr">
         <is>
           <t>getMenuList</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E9" s="19" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F9" s="20" t="inlineStr">
         <is>
           <t>/project/openReady/getMenuList?bidSectionId=#bidSectionId#</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G9" s="20" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
+      <c r="H9" s="19" t="inlineStr">
         <is>
           <t>{"code":200,"msg":"处理成功"}</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I9" s="26" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="28" r="7">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="J9" s="19" t="n"/>
+      <c r="K9" s="19" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="28" r="10" s="8">
+      <c r="A10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="inlineStr">
         <is>
           <t>打开【新增投标单位】弹框</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C10" s="20" t="inlineStr">
         <is>
           <t>提取openBidId</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D10" s="19" t="inlineStr">
         <is>
           <t>getBidSectionBriefList</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="E10" s="19" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F10" s="20" t="inlineStr">
         <is>
           <t>/bidsection/getBidSectionBriefList</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G10" s="20" t="inlineStr">
         <is>
           <t>{"id":"#domainId#","bidSectionIds":["#bidSectionId#"]}</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
+      <c r="H10" s="19" t="inlineStr">
         <is>
           <t>{"code":200,"msg":"处理成功"}</t>
         </is>
       </c>
-      <c r="I7" s="14" t="inlineStr">
+      <c r="I10" s="25" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="42" r="8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="J10" s="19" t="n"/>
+      <c r="K10" s="19" t="n"/>
+    </row>
+    <row customHeight="1" ht="42" r="11">
+      <c r="A11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>添加投标人成功</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="C11" s="11" t="n"/>
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>addBidder</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F11" s="11" t="inlineStr">
         <is>
           <t>/prepare/addBidder</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G11" s="11" t="inlineStr">
         <is>
           <t>{"bidSectionIds":[{"bidSectionId":"#bidSectionId#","openBidId":"#openBidId#"}],"bidderName":"2","projectId":"#projectId#"}</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t>{"code":200,"msg":"处理成功"}</t>
         </is>
       </c>
-      <c r="I8" s="14" t="inlineStr">
+      <c r="I11" s="24" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J11" s="4" t="inlineStr">
         <is>
           <t>该项目下新增一个投标人</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="42" r="9">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="K11" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="42" r="12">
+      <c r="A12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>重复添加投标人</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="C12" s="11" t="n"/>
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>addBidder</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F12" s="11" t="inlineStr">
         <is>
           <t>/prepare/addBidder</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G12" s="11" t="inlineStr">
         <is>
           <t>{"bidSectionIds":[{"bidSectionId":"#bidSectionId#","openBidId":"#openBidId#"}],"bidderName":"2","projectId":"#projectId#"}</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
+      <c r="H12" s="4" t="inlineStr">
         <is>
           <t>{"code":200,"msg":"处理成功"}</t>
         </is>
       </c>
-      <c r="I9" s="14" t="inlineStr">
+      <c r="I12" s="24" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>同名投标人只有一个</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="56" r="10">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="K12" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="70" r="13">
+      <c r="A13" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>查询投标人列表</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>提取bidderId，bidderName，singedId</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>bidderList</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
         <is>
           <t>/prepare/list</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G13" s="11" t="inlineStr">
         <is>
           <t>{"bidSectionId":"#bidSectionId#","openBidId":"#openBidId#","stage":0,"fileType":"","searchQueryInfo":{"offset":1,"limit":60,"orders":[{"fieldName":"fileState","isAsc":true}],"filters":[{}]}}</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>{"code":200,"msg":"处理成功"}</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I13" s="3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="89" r="11">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="J13" s="4" t="n"/>
+      <c r="K13" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="71" r="14">
+      <c r="A14" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>投标文件已递交</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>tFileUpdateSignData</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
         <is>
           <t>/prepare/updateSignData</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G14" s="11" t="inlineStr">
         <is>
           <t>{
  "data": {
@@ -2423,162 +2421,172 @@
 }</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t>{"code":200,"msg":"处理成功"}</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I14" s="3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="86" r="12">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="J14" s="4" t="n"/>
+      <c r="K14" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="106" r="15" s="1">
+      <c r="A15" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>保证金未要求</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="C15" s="11" t="n"/>
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>bUpdateSignDataNy</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F15" s="11" t="inlineStr">
         <is>
           <t>/prepare/updateSignData</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G15" s="11" t="inlineStr">
         <is>
           <t>{"data":{"bidSectionId":"#bidSectionId#","bidderId":"#bidderId#","bidderName":"#bidderName#","singedId":"#singedId#","signedTimeDate":null,"signedTime":null,"signedState":0,"signedIdcard":null,"signedPhone":null,"signedName":null,"cashDepositState":0,"fileState":0,"remark":"","depositPayType":0,"btnLoading":false},"queryPageTemplateVO":{"bidSectionId":"#bidSectionId#","openBidId":"#openBidId#","projectId":"#projectId#","tempName":"开标准备"},"bidSectionId":"#bidSectionId#","bidSectionIds":["#bidSectionId#"]}</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>{"code":200,"msg":"处理成功"}</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="96" r="13">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="102" r="16" s="1">
+      <c r="A16" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>保证金未递交</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="C16" s="11" t="n"/>
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>bUpdateSignDataNd</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F16" s="11" t="inlineStr">
         <is>
           <t>/prepare/updateSignData</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G16" s="11" t="inlineStr">
         <is>
           <t>{"data":{"bidSectionId":"#bidSectionId#","bidderId":"#bidderId#","bidderName":"#bidderName#","singedId":"#singedId#","signedTimeDate":null,"signedTime":null,"signedState":0,"signedIdcard":null,"signedPhone":null,"signedName":null,"cashDepositState":1,"fileState":1,"remark":"","depositPayType":0,"btnLoading":false},"queryPageTemplateVO":{"bidSectionId":"#bidSectionId#","openBidId":"#openBidId#","projectId":"#projectId#","tempName":"开标准备"},"bidSectionId":"#bidSectionId#","bidSectionIds":["#bidSectionId#"]}</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
+      <c r="H16" s="4" t="inlineStr">
         <is>
           <t>{"code":200,"msg":"处理成功"}</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I16" s="3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="85" r="14">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>保证经已递交</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="J16" s="4" t="n"/>
+      <c r="K16" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="100" r="17" s="1">
+      <c r="A17" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>保证金已递交</t>
+        </is>
+      </c>
+      <c r="C17" s="11" t="n"/>
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>bUpdateSignDataYd</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F17" s="11" t="inlineStr">
         <is>
           <t>/prepare/updateSignData</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>{"data":{"bidSectionId":"#bidSectionId#","bidderId":"#bidderId#","bidderName":"#bidderName#","singedId":"#singedId#","signedTimeDate":null,"signedTime":null,"signedState":0,"signedIdcard":null,"signedPhone":null,"signedName":null,"cashDepositState":2,"fileState":1,"remark":"","depositPayType":0,"btnLoading":false},"queryPageTemplateVO":{"bidSectionId":"#bidSectionId#","openBidId":"#openBidId#","projectId":"#projectId#","tempName":"开标准备"},"bidSectionId":"#bidSectionId#","bidSectionIds":["#bidSectionId#"]}</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="inlineStr">
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>{"data":{"bidSectionId":"#bidSectionId#","bidderId":"#bidderId#","bidderName":"#bidderName#","singedId":"#singedId#","signedTimeDate":null,"signedTime":null,"signedState":0,"signedIdcard":null,"signedPhone":null,"signedName":null,"cashDepositState":2,"fileState":0,"remark":"","depositPayType":0,"btnLoading":false},"queryPageTemplateVO":{"bidSectionId":"#bidSectionId#","openBidId":"#openBidId#","projectId":"#projectId#","tempName":"开标准备"},"bidSectionId":"#bidSectionId#","bidSectionIds":["#bidSectionId#"]}</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
         <is>
           <t>{"code":200,"msg":"处理成功"}</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I17" s="3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="52" r="15">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="J17" s="4" t="n"/>
+      <c r="K17" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="82" r="18" s="1">
+      <c r="A18" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>确认投标人</t>
         </is>
       </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="C18" s="11" t="n"/>
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>updateSignDataConfirm</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F18" s="11" t="inlineStr">
         <is>
           <t>/prepare/updateSignData</t>
         </is>
       </c>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="G18" s="21" t="inlineStr">
         <is>
           <t>{
  "data": {
@@ -2609,82 +2617,88 @@
 }</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
+      <c r="H18" s="4" t="inlineStr">
         <is>
           <t>{"code":200,"msg":"处理成功"}</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I18" s="3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="16">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="J18" s="4" t="n"/>
+      <c r="K18" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="82" r="19" s="1">
+      <c r="A19" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>撤销确认</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="C19" s="11" t="n"/>
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>revokeSign</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F19" s="11" t="inlineStr">
         <is>
           <t>/prepare/revokeSign/#singedId#</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G19" s="11" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
+      <c r="H19" s="4" t="inlineStr">
         <is>
           <t>{"code":200,"msg":"处理成功"}</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I19" s="3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="99" r="17">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="J19" s="4" t="n"/>
+      <c r="K19" s="4" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="141" r="20" s="1">
+      <c r="A20" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>全部确认</t>
         </is>
       </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="C20" s="11" t="n"/>
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>signAllData</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F20" s="11" t="inlineStr">
         <is>
           <t>/prepare/signAllData</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G20" s="11" t="inlineStr">
         <is>
           <t>{
  "jsonArray": [{
@@ -2717,42 +2731,45 @@
 }</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
+      <c r="H20" s="4" t="inlineStr">
         <is>
           <t>{"code":200,"msg":"处理成功"}</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I20" s="3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="51" r="18">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="J20" s="4" t="n"/>
+      <c r="K20" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="84" r="21">
+      <c r="A21" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>跳转到【公布投标人】页</t>
         </is>
       </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="C21" s="11" t="n"/>
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>pubPage</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F21" s="11" t="inlineStr">
         <is>
           <t>/pageTemplate/findPageTemplate</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G21" s="11" t="inlineStr">
         <is>
           <t>{
  "bidSectionId": "#bidSectionId#",
@@ -2762,42 +2779,45 @@
 }</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
+      <c r="H21" s="4" t="inlineStr">
         <is>
           <t>{"code":200,"msg":"处理成功"}</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I21" s="3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="47" r="19">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="J21" s="4" t="n"/>
+      <c r="K21" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="70" r="22">
+      <c r="A22" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>点击【公布投标人】按钮</t>
         </is>
       </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="C22" s="11" t="n"/>
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>batchUpdatePubBidderStatus</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F22" s="11" t="inlineStr">
         <is>
           <t>/publicBidder/batchUpdatePubBidderStatus</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G22" s="11" t="inlineStr">
         <is>
           <t>{
  "id": "#domainId#",
@@ -2806,42 +2826,45 @@
 }</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
+      <c r="H22" s="4" t="inlineStr">
         <is>
           <t>{"code":200,"msg":"处理成功"}</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I22" s="3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="30" r="20">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="J22" s="4" t="n"/>
+      <c r="K22" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="84" r="23">
+      <c r="A23" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>跳转到【投标文件解密】页</t>
         </is>
       </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="C23" s="11" t="n"/>
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>jiemiPage</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F23" s="11" t="inlineStr">
         <is>
           <t>/pageTemplate/findPageTemplate</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G23" s="11" t="inlineStr">
         <is>
           <t>{
  "bidSectionId": "#bidSectionId#",
@@ -2851,42 +2874,45 @@
 }</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
+      <c r="H23" s="4" t="inlineStr">
         <is>
           <t>{"code":200,"msg":"处理成功"}</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I23" s="3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="30" r="21">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="J23" s="4" t="n"/>
+      <c r="K23" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="84" r="24">
+      <c r="A24" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>点击【开始解密】</t>
         </is>
       </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="C24" s="11" t="n"/>
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>startDecrypt</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F24" s="11" t="inlineStr">
         <is>
           <t>/decrypt/startDecrypt</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G24" s="11" t="inlineStr">
         <is>
           <t>{
  "domainId": "#domainId#",
@@ -2896,162 +2922,356 @@
 }</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
+      <c r="H24" s="4" t="inlineStr">
         <is>
           <t>{"code":200,"msg":"处理成功"}</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I24" s="3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="30" r="22">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="J24" s="4" t="n"/>
+      <c r="K24" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="28" r="25">
+      <c r="A25" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>打开文件上传弹框</t>
         </is>
       </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="C25" s="11" t="n"/>
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>getUploadUrl</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F25" s="11" t="inlineStr">
         <is>
           <t>/projectGen/getUploadUrl</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G25" s="11" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
+      <c r="H25" s="4" t="inlineStr">
         <is>
           <t>{"code":"200","msg":"操作成功"}</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I25" s="3" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="29" r="23">
-      <c r="A23" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="J25" s="4" t="n"/>
+      <c r="K25" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="28" r="26">
+      <c r="A26" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>上传加密投标文件</t>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="C26" s="11" t="n"/>
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>uploadFilePiece</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F23" s="8" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F26" s="22" t="inlineStr">
         <is>
           <t>http://10.0.106.3:81/fileHandle/filePiece/uploadFilePiece</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="14" r="24">
-      <c r="A24" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="G26" s="11" t="n"/>
+      <c r="H26" s="4" t="n"/>
+      <c r="I26" s="4" t="n"/>
+      <c r="J26" s="4" t="n"/>
+      <c r="K26" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="27">
+      <c r="A27" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>解密</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14" r="25">
-      <c r="A25" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="C27" s="11" t="n"/>
+      <c r="D27" s="4" t="n"/>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F27" s="11" t="n"/>
+      <c r="G27" s="11" t="n"/>
+      <c r="H27" s="4" t="n"/>
+      <c r="I27" s="4" t="n"/>
+      <c r="J27" s="4" t="n"/>
+      <c r="K27" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="28">
+      <c r="A28" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>跳转到【唱标】页</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14" r="26">
-      <c r="A26" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="C28" s="11" t="n"/>
+      <c r="D28" s="4" t="n"/>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F28" s="11" t="n"/>
+      <c r="G28" s="11" t="n"/>
+      <c r="H28" s="4" t="n"/>
+      <c r="I28" s="4" t="n"/>
+      <c r="J28" s="4" t="n"/>
+      <c r="K28" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="29">
+      <c r="A29" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>唱标</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14" r="27">
-      <c r="A27" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="C29" s="11" t="n"/>
+      <c r="D29" s="4" t="n"/>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F29" s="11" t="n"/>
+      <c r="G29" s="11" t="n"/>
+      <c r="H29" s="4" t="n"/>
+      <c r="I29" s="4" t="n"/>
+      <c r="J29" s="4" t="n"/>
+      <c r="K29" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="30">
+      <c r="A30" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>一键唱标</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14" r="28">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="C30" s="11" t="n"/>
+      <c r="D30" s="4" t="n"/>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F30" s="11" t="n"/>
+      <c r="G30" s="11" t="n"/>
+      <c r="H30" s="4" t="n"/>
+      <c r="I30" s="4" t="n"/>
+      <c r="J30" s="4" t="n"/>
+      <c r="K30" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="31">
+      <c r="A31" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>确认围串标结果</t>
+        </is>
+      </c>
+      <c r="C31" s="11" t="n"/>
+      <c r="D31" s="4" t="n"/>
+      <c r="E31" s="4" t="n"/>
+      <c r="F31" s="11" t="n"/>
+      <c r="G31" s="11" t="n"/>
+      <c r="H31" s="4" t="n"/>
+      <c r="I31" s="4" t="n"/>
+      <c r="J31" s="4" t="n"/>
+      <c r="K31" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="32">
+      <c r="A32" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>上传控制价文件</t>
+        </is>
+      </c>
+      <c r="C32" s="11" t="n"/>
+      <c r="D32" s="4" t="n"/>
+      <c r="E32" s="4" t="n"/>
+      <c r="F32" s="11" t="n"/>
+      <c r="G32" s="11" t="n"/>
+      <c r="H32" s="4" t="n"/>
+      <c r="I32" s="4" t="n"/>
+      <c r="J32" s="4" t="n"/>
+      <c r="K32" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="33">
+      <c r="A33" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>查看开标报表</t>
+        </is>
+      </c>
+      <c r="C33" s="11" t="n"/>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="4" t="n"/>
+      <c r="F33" s="11" t="n"/>
+      <c r="G33" s="11" t="n"/>
+      <c r="H33" s="4" t="n"/>
+      <c r="I33" s="4" t="n"/>
+      <c r="J33" s="4" t="n"/>
+      <c r="K33" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="34">
+      <c r="A34" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>开标结束</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14" r="29"/>
+      <c r="C34" s="11" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F34" s="11" t="n"/>
+      <c r="G34" s="11" t="n"/>
+      <c r="H34" s="4" t="n"/>
+      <c r="I34" s="4" t="n"/>
+      <c r="J34" s="4" t="n"/>
+      <c r="K34" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="35"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://10.0.106.3:81/fileHandle/filePiece/uploadFilePiece" ref="F23" tooltip="http://10.0.106.3:81/fileHandle/filePiece/uploadFilePiece" r:id="rId1"/>
+    <hyperlink display="/fileHandle//fileSystem/uploadFile" ref="F5" r:id="rId1"/>
+    <hyperlink display="http://10.0.106.3:81/fileHandle/filePiece/uploadFilePiece" ref="F26" tooltip="http://10.0.106.3:81/fileHandle/filePiece/uploadFilePiece" r:id="rId2"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="$A7:$XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.66666666666667" defaultRowHeight="20" outlineLevelRow="7"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="2" width="9.25"/>
+    <col customWidth="1" max="2" min="2" style="2" width="26.5"/>
+    <col customWidth="1" max="6" min="3" style="2" width="8.66666666666667"/>
+    <col customWidth="1" max="7" min="7" style="2" width="71.0833333333333"/>
+    <col customWidth="1" max="16384" min="8" style="2" width="8.66666666666667"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="14" r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>功能</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="2">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>异议</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="3">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>开标报表确认</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="4">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>保函下载</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="14" r="5">
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>上传控制价文件</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="72" r="6" s="1">
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8110" windowWidth="18530"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8110" windowWidth="18530"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -1105,8 +1105,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="$A7:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="H3" s="27" t="inlineStr">
         <is>
-          <t>未通过</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H5" s="27" t="inlineStr">
         <is>
-          <t>未通过</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -1375,8 +1375,8 @@
   </sheetPr>
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1539,11 +1539,7 @@
         </is>
       </c>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>DELETE FROM open_project WHERE project_id='#projectId#'</t>
-        </is>
-      </c>
+      <c r="K3" s="4" t="n"/>
       <c r="L3" s="1" t="n"/>
       <c r="M3" s="1" t="n"/>
       <c r="N3" s="1" t="n"/>
@@ -1663,7 +1659,7 @@
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>不通过</t>
+          <t>通过</t>
         </is>
       </c>
       <c r="J5" s="23" t="inlineStr">
@@ -1671,7 +1667,7 @@
           <t>数据库新增一条项目信息</t>
         </is>
       </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="K5" s="1" t="inlineStr">
         <is>
           <t>DELETE FROM open_project WHERE project_id='#projectId#'</t>
         </is>
@@ -1693,8 +1689,8 @@
   </sheetPr>
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A23" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="A35" sqref="$A35:$XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.66666666666667" defaultRowHeight="21"/>
@@ -3181,7 +3177,6 @@
       <c r="J34" s="4" t="n"/>
       <c r="K34" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="14" r="35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink display="/fileHandle//fileSystem/uploadFile" ref="F5" r:id="rId1"/>
@@ -3203,7 +3198,7 @@
       <selection activeCell="A7" sqref="$A7:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.66666666666667" defaultRowHeight="20" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.66666666666667" defaultRowHeight="20" outlineLevelRow="5"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="2" width="9.25"/>
     <col customWidth="1" max="2" min="2" style="2" width="26.5"/>
